--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1902.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CAB2D8-42C4-49FA-8E14-5049BB626F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4258848-D2C0-42B0-81A4-FB979511BD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
   <si>
     <t>губ</t>
   </si>
@@ -2246,7 +2246,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC104" sqref="AC104"/>
+      <selection pane="bottomRight" activeCell="AB100" sqref="AB100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2278,7 +2278,7 @@
     <col min="28" max="29" width="8.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11858,13 +11858,11 @@
         <f>P100</f>
         <v>1612315</v>
       </c>
-      <c r="AB100" s="3" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC100" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+      <c r="AB100" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1902.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4258848-D2C0-42B0-81A4-FB979511BD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F798896-EFC2-45AA-B8E9-54B4A2EB40BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -358,9 +353,6 @@
     <t>Средняя Азия</t>
   </si>
   <si>
-    <t>чж 1903</t>
-  </si>
-  <si>
     <t xml:space="preserve">Архангельская </t>
   </si>
   <si>
@@ -586,12 +578,6 @@
     <t>Пермская</t>
   </si>
   <si>
-    <t>чр 1902</t>
-  </si>
-  <si>
-    <t>чу 1902</t>
-  </si>
-  <si>
     <t xml:space="preserve">Гродненская </t>
   </si>
   <si>
@@ -610,79 +596,70 @@
     <t>Число смертей в Сибири (уезды) расходится на 20 тыс. с пообластными данными</t>
   </si>
   <si>
-    <t>чж 1903
-города-муж</t>
-  </si>
-  <si>
-    <t>чж 1903
-города-жен</t>
-  </si>
-  <si>
-    <t>чж 1903
-города-оба</t>
-  </si>
-  <si>
-    <t>чр 1902
-города-муж</t>
-  </si>
-  <si>
-    <t>чр 1902
-города-жен</t>
-  </si>
-  <si>
-    <t>чр 1902
-города-оба</t>
-  </si>
-  <si>
-    <t>чу 1902
-города-муж</t>
-  </si>
-  <si>
-    <t>чу 1902
-города-жен</t>
-  </si>
-  <si>
-    <t>чу 1902
-города-оба</t>
-  </si>
-  <si>
-    <t>чж 1903
-уезды-муж</t>
-  </si>
-  <si>
-    <t>чж 1903
-уезды-жен</t>
-  </si>
-  <si>
-    <t>чж 1903
-уезды-оба</t>
-  </si>
-  <si>
-    <t>чр 1902
-уезды-муж</t>
-  </si>
-  <si>
-    <t>чр 1902
-уезды-жен</t>
-  </si>
-  <si>
-    <t>чр 1902
-уезды-оба</t>
-  </si>
-  <si>
-    <t>чу 1902
-уезды-муж</t>
-  </si>
-  <si>
-    <t>чу 1902
-уезды-жен</t>
-  </si>
-  <si>
-    <t>чу 1902
-уезды-оба</t>
-  </si>
-  <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>чр-гор-м YY</t>
+  </si>
+  <si>
+    <t>чр-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чр-гор-о YY</t>
+  </si>
+  <si>
+    <t>чс-гор-м YY</t>
+  </si>
+  <si>
+    <t>чс-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чс-гор-о YY</t>
+  </si>
+  <si>
+    <t>чж-уез-м NYY</t>
+  </si>
+  <si>
+    <t>чж-уез-ж NYY</t>
+  </si>
+  <si>
+    <t>чж-уез-о NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-м YY</t>
+  </si>
+  <si>
+    <t>чр-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чр-уез-о YY</t>
+  </si>
+  <si>
+    <t>чс-уез-м YY</t>
+  </si>
+  <si>
+    <t>чс-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чс-уез-о YY</t>
+  </si>
+  <si>
+    <t>чж-гор-о NYY</t>
+  </si>
+  <si>
+    <t>чж-гор-ж NYY</t>
+  </si>
+  <si>
+    <t>чж-гор-м NYY</t>
+  </si>
+  <si>
+    <t>чж NYY</t>
+  </si>
+  <si>
+    <t>чр YY</t>
+  </si>
+  <si>
+    <t>чу YY</t>
   </si>
 </sst>
 </file>
@@ -1083,12 +1060,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1087,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1098,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1109,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1120,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1131,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1153,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1164,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1198,7 +1175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1186,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1197,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1219,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1230,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1241,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1275,7 +1252,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1263,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +1274,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1308,7 +1285,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1296,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1307,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +1329,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1374,7 +1351,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1385,7 +1362,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1373,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1384,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1418,7 +1395,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1429,7 +1406,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1417,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1428,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1462,7 +1439,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1450,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1484,7 +1461,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1495,7 +1472,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1506,7 +1483,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1517,7 +1494,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1528,7 +1505,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1539,7 +1516,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1550,7 +1527,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1561,7 +1538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1572,7 +1549,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1583,7 +1560,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1594,7 +1571,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1605,7 +1582,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1616,7 +1593,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1627,7 +1604,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1638,7 +1615,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1649,7 +1626,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1660,7 +1637,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1671,7 +1648,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1682,7 +1659,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1693,7 +1670,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1704,7 +1681,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1715,7 +1692,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1726,7 +1703,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1737,7 +1714,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1748,7 +1725,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1759,7 +1736,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1770,7 +1747,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1781,7 +1758,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1792,7 +1769,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1803,7 +1780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1814,7 +1791,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1825,7 +1802,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1836,7 +1813,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1847,7 +1824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1858,7 +1835,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1869,7 +1846,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1880,7 +1857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1891,7 +1868,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1902,9 +1879,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B75" s="2">
         <v>39.1</v>
@@ -1913,7 +1890,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1924,7 +1901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1935,7 +1912,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1946,7 +1923,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1957,7 +1934,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1968,7 +1945,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1979,7 +1956,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1990,7 +1967,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2001,7 +1978,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2012,7 +1989,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2023,7 +2000,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2034,7 +2011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2045,7 +2022,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2056,7 +2033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2067,7 +2044,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2078,7 +2055,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2089,7 +2066,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2100,7 +2077,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2111,7 +2088,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2122,7 +2099,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2133,7 +2110,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2144,7 +2121,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2155,7 +2132,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2166,7 +2143,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2177,7 +2154,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2188,7 +2165,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2199,7 +2176,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2210,7 +2187,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2221,7 +2198,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2243,131 +2220,127 @@
   <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB100" sqref="AB100"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.41796875" customWidth="1"/>
-    <col min="2" max="2" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.47265625" customWidth="1"/>
-    <col min="5" max="5" width="9.20703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.47265625" customWidth="1"/>
-    <col min="9" max="9" width="7.68359375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.68359375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.62890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.20703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.62890625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="I1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="K1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="L1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="M1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="O1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="P1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="S1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="T1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="U1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="W1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="X1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="Y1" s="8" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="Z1" s="9"/>
       <c r="AA1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>106</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>107</v>
       </c>
       <c r="B2" s="3">
         <v>15817</v>
@@ -2461,9 +2434,9 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3">
         <v>84802</v>
@@ -2557,7 +2530,7 @@
         <v>28639</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2653,9 +2626,9 @@
         <v>37693</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3">
         <v>118656</v>
@@ -2749,7 +2722,7 @@
         <v>37827</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2845,9 +2818,9 @@
         <v>82509</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B7" s="3">
         <v>128113</v>
@@ -2941,7 +2914,7 @@
         <v>39741</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3037,9 +3010,9 @@
         <v>101369</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3">
         <v>74587</v>
@@ -3133,7 +3106,7 @@
         <v>36890</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3229,7 +3202,7 @@
         <v>58361</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3325,9 +3298,9 @@
         <v>46183</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3">
         <v>76848</v>
@@ -3421,7 +3394,7 @@
         <v>80311</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3517,9 +3490,9 @@
         <v>80287</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3">
         <v>1344483</v>
@@ -3613,9 +3586,9 @@
         <v>640457</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3">
         <v>370981</v>
@@ -3709,7 +3682,7 @@
         <v>14190</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +3778,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3901,7 +3874,7 @@
         <v>21548</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3997,7 +3970,7 @@
         <v>17713</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4093,9 +4066,9 @@
         <v>13071</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="3">
         <v>67145</v>
@@ -4189,7 +4162,7 @@
         <v>29108</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4285,7 +4258,7 @@
         <v>40862</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -4381,9 +4354,9 @@
         <v>16095</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="3">
         <v>36196</v>
@@ -4477,9 +4450,9 @@
         <v>21832</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="3">
         <v>36446</v>
@@ -4573,9 +4546,9 @@
         <v>17251</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="3">
         <v>45278</v>
@@ -4669,9 +4642,9 @@
         <v>20556</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3">
         <v>933611</v>
@@ -4765,7 +4738,7 @@
         <v>252137</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4861,9 +4834,9 @@
         <v>13220</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="3">
         <v>182194</v>
@@ -4957,7 +4930,7 @@
         <v>25737</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5053,9 +5026,9 @@
         <v>7724</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="3">
         <v>300924</v>
@@ -5149,9 +5122,9 @@
         <v>46681</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="3">
         <v>161637</v>
@@ -5245,9 +5218,9 @@
         <v>55423</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="3">
         <v>75786</v>
@@ -5341,9 +5314,9 @@
         <v>60159</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="3">
         <v>32943</v>
@@ -5437,7 +5410,7 @@
         <v>46746</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5533,7 +5506,7 @@
         <v>110330</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5629,9 +5602,9 @@
         <v>138959</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>97</v>
@@ -5725,9 +5698,9 @@
         <v>71921</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="3">
         <v>106829</v>
@@ -5821,9 +5794,9 @@
         <v>84085</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="3">
         <v>47896</v>
@@ -5917,9 +5890,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>97</v>
@@ -6013,9 +5986,9 @@
         <v>48874</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="3">
         <v>103037</v>
@@ -6109,9 +6082,9 @@
         <v>80754</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="3">
         <v>80237</v>
@@ -6205,9 +6178,9 @@
         <v>51455</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="10">
         <v>648004</v>
@@ -6301,9 +6274,9 @@
         <v>28938</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="3">
         <v>63031</v>
@@ -6397,9 +6370,9 @@
         <v>67059</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="3">
         <v>50863</v>
@@ -6493,7 +6466,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -6589,7 +6562,7 @@
         <v>14552</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -6685,9 +6658,9 @@
         <v>81972</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="3">
         <v>63998</v>
@@ -6781,9 +6754,9 @@
         <v>64858</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>97</v>
@@ -6877,9 +6850,9 @@
         <v>149988</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" s="3">
         <v>138754</v>
@@ -6973,9 +6946,9 @@
         <v>75625</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="3">
         <v>43425</v>
@@ -7069,9 +7042,9 @@
         <v>31694</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B51" s="3">
         <v>69616</v>
@@ -7165,7 +7138,7 @@
         <v>66751</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -7261,9 +7234,9 @@
         <v>122486</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>97</v>
@@ -7357,9 +7330,9 @@
         <v>24343</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B54" s="3">
         <v>716445</v>
@@ -7453,9 +7426,9 @@
         <v>28674</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B55" s="3">
         <v>186837</v>
@@ -7549,9 +7522,9 @@
         <v>100685</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56" s="3">
         <v>57766</v>
@@ -7645,9 +7618,9 @@
         <v>63262</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3">
         <v>86773</v>
@@ -7741,9 +7714,9 @@
         <v>60199</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58" s="3">
         <v>153464</v>
@@ -7837,9 +7810,9 @@
         <v>42266</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3">
         <v>42698</v>
@@ -7933,9 +7906,9 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="3">
         <v>113250</v>
@@ -8029,9 +8002,9 @@
         <v>107858</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="3">
         <v>84115</v>
@@ -8125,7 +8098,7 @@
         <v>61400</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -8221,9 +8194,9 @@
         <v>57007</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="3">
         <v>62685</v>
@@ -8317,7 +8290,7 @@
         <v>77397</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -8413,9 +8386,9 @@
         <v>82631</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>97</v>
@@ -8509,9 +8482,9 @@
         <v>62903</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B66" s="3">
         <v>258355</v>
@@ -8605,9 +8578,9 @@
         <v>9298</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="10">
         <v>50867</v>
@@ -8701,9 +8674,9 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" s="3">
         <v>112419</v>
@@ -8797,9 +8770,9 @@
         <v>64152</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B69" s="3">
         <v>78259</v>
@@ -8893,9 +8866,9 @@
         <v>40290</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B70" s="10">
         <v>4291977</v>
@@ -8989,9 +8962,9 @@
         <v>2425135</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="3">
         <v>114489</v>
@@ -9085,9 +9058,9 @@
         <v>96350</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B72" s="10">
         <v>6985484</v>
@@ -9181,9 +9154,9 @@
         <v>3460260</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B73" s="3">
         <v>145918</v>
@@ -9277,9 +9250,9 @@
         <v>18960</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" s="3">
         <v>5924</v>
@@ -9373,9 +9346,9 @@
         <v>14063</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>97</v>
@@ -9469,9 +9442,9 @@
         <v>15597</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B76" s="3">
         <v>12115</v>
@@ -9565,9 +9538,9 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B77" s="3">
         <v>86041</v>
@@ -9661,9 +9634,9 @@
         <v>67195</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>97</v>
@@ -9757,9 +9730,9 @@
         <v>17762</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79" s="3">
         <v>24504</v>
@@ -9853,9 +9826,9 @@
         <v>37635</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" s="3">
         <v>70654</v>
@@ -9949,7 +9922,7 @@
         <v>22861</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -10045,9 +10018,9 @@
         <v>19381</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B82" s="3">
         <v>29270</v>
@@ -10141,7 +10114,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -10237,9 +10210,9 @@
         <v>17841</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B84" s="3">
         <v>547293</v>
@@ -10333,7 +10306,7 @@
         <v>238741</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -10429,9 +10402,9 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B86" s="3">
         <v>37109</v>
@@ -10525,9 +10498,9 @@
         <v>23016</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>97</v>
@@ -10621,9 +10594,9 @@
         <v>14776</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B88" s="3">
         <v>31154</v>
@@ -10717,7 +10690,7 @@
         <v>19487</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -10813,9 +10786,9 @@
         <v>5038</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>97</v>
@@ -10909,9 +10882,9 @@
         <v>71575</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B91" s="3">
         <v>72854</v>
@@ -11005,7 +10978,7 @@
         <v>64690</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -11101,9 +11074,9 @@
         <v>6638</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -11197,9 +11170,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B94" s="3">
         <v>239578</v>
@@ -11293,9 +11266,9 @@
         <v>209225</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B95" s="3">
         <v>49779</v>
@@ -11389,9 +11362,9 @@
         <v>15891</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>97</v>
@@ -11485,9 +11458,9 @@
         <v>6708</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>97</v>
@@ -11579,9 +11552,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B98" s="3">
         <v>25387</v>
@@ -11675,9 +11648,9 @@
         <v>8430</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B99" s="10">
         <v>34760</v>
@@ -11771,9 +11744,9 @@
         <v>20950</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>97</v>
@@ -11865,7 +11838,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -11961,7 +11934,7 @@
         <v>11639</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -12057,7 +12030,7 @@
         <v>13209</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -12153,9 +12126,9 @@
         <v>34195</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B104" s="10">
         <v>151526</v>
@@ -12249,9 +12222,9 @@
         <v>111022</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" s="3">
         <v>938391</v>
@@ -12345,9 +12318,9 @@
         <v>538988</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B106" s="3">
         <v>7933875</v>
@@ -12441,7 +12414,7 @@
         <v>3989254</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -12471,7 +12444,7 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -12501,7 +12474,7 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -12531,7 +12504,7 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -12561,7 +12534,7 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -12591,7 +12564,7 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -12621,7 +12594,7 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
     </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -12651,7 +12624,7 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
     </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -12681,7 +12654,7 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
     </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -12711,7 +12684,7 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
     </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -12741,7 +12714,7 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
     </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -12771,7 +12744,7 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
     </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -12801,7 +12774,7 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
     </row>
-    <row r="119" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -12831,7 +12804,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
     </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -12861,7 +12834,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -12891,7 +12864,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -12921,7 +12894,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
     </row>
-    <row r="123" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -12951,7 +12924,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
     </row>
-    <row r="124" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -12981,7 +12954,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
     </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -13011,7 +12984,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -13041,7 +13014,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -13071,7 +13044,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -13101,7 +13074,7 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -13131,7 +13104,7 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
     </row>
-    <row r="130" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -13161,7 +13134,7 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
     </row>
-    <row r="131" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -13191,7 +13164,7 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
     </row>
-    <row r="132" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -13221,7 +13194,7 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -13251,7 +13224,7 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -13281,7 +13254,7 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -13311,7 +13284,7 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
     </row>
-    <row r="136" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -13341,7 +13314,7 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
     </row>
-    <row r="137" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -13371,7 +13344,7 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
-    <row r="138" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -13401,7 +13374,7 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
     </row>
-    <row r="139" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -13431,7 +13404,7 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -13461,7 +13434,7 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -13491,7 +13464,7 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
     </row>
-    <row r="142" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -13521,7 +13494,7 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
     </row>
-    <row r="143" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -13551,7 +13524,7 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
     </row>
-    <row r="144" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -13581,7 +13554,7 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
     </row>
-    <row r="145" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -13611,7 +13584,7 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
     </row>
-    <row r="146" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -13641,7 +13614,7 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -13671,7 +13644,7 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -13701,7 +13674,7 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
     </row>
-    <row r="149" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -13731,7 +13704,7 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
     </row>
-    <row r="150" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -13761,7 +13734,7 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -13791,7 +13764,7 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -13821,7 +13794,7 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -13851,7 +13824,7 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -13881,7 +13854,7 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
     </row>
-    <row r="155" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -13911,7 +13884,7 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
     </row>
-    <row r="156" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -13941,7 +13914,7 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
     </row>
-    <row r="157" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -13971,7 +13944,7 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
     </row>
-    <row r="158" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -14001,7 +13974,7 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
     </row>
-    <row r="159" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -14031,7 +14004,7 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
     </row>
-    <row r="160" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -14061,7 +14034,7 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
     </row>
-    <row r="161" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -14091,7 +14064,7 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
     </row>
-    <row r="162" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -14121,7 +14094,7 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
     </row>
-    <row r="163" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -14151,7 +14124,7 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
     </row>
-    <row r="164" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -14181,7 +14154,7 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
     </row>
-    <row r="165" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -14211,7 +14184,7 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
     </row>
-    <row r="166" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -14241,7 +14214,7 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -14271,7 +14244,7 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
     </row>
-    <row r="168" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -14301,7 +14274,7 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
     </row>
-    <row r="169" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -14331,7 +14304,7 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -14361,7 +14334,7 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -14391,7 +14364,7 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
     </row>
-    <row r="172" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -14421,7 +14394,7 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
     </row>
-    <row r="173" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -14451,7 +14424,7 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
     </row>
-    <row r="174" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -14481,7 +14454,7 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -14511,7 +14484,7 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
     </row>
-    <row r="176" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -14541,7 +14514,7 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
     </row>
-    <row r="177" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -14571,7 +14544,7 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
     </row>
-    <row r="178" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -14601,7 +14574,7 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
     </row>
-    <row r="179" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -14631,7 +14604,7 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -14661,7 +14634,7 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -14691,7 +14664,7 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -14721,7 +14694,7 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -14751,7 +14724,7 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -14781,7 +14754,7 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -14811,7 +14784,7 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
     </row>
-    <row r="186" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -14841,7 +14814,7 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
     </row>
-    <row r="187" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -14871,7 +14844,7 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
     </row>
-    <row r="188" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -14901,7 +14874,7 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
     </row>
-    <row r="189" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -14931,7 +14904,7 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
     </row>
-    <row r="190" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -14961,7 +14934,7 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
     </row>
-    <row r="191" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -14991,7 +14964,7 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -15021,7 +14994,7 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -15051,7 +15024,7 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
     </row>
-    <row r="194" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -15081,7 +15054,7 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -15111,7 +15084,7 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
     </row>
-    <row r="196" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -15141,7 +15114,7 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
     </row>
-    <row r="197" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -15171,7 +15144,7 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
     </row>
-    <row r="198" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -15201,7 +15174,7 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
     </row>
-    <row r="199" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -15231,7 +15204,7 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
     </row>
-    <row r="200" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -15261,7 +15234,7 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
     </row>
-    <row r="201" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -15291,7 +15264,7 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
     </row>
-    <row r="202" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -15321,7 +15294,7 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
     </row>
-    <row r="203" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -15351,7 +15324,7 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
     </row>
-    <row r="204" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -15381,7 +15354,7 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
     </row>
-    <row r="205" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -15411,7 +15384,7 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
     </row>
-    <row r="206" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -15441,7 +15414,7 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
     </row>
-    <row r="207" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -15471,7 +15444,7 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
     </row>
-    <row r="208" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -15501,7 +15474,7 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
     </row>
-    <row r="209" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -15531,7 +15504,7 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -15561,7 +15534,7 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -15591,7 +15564,7 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -15621,7 +15594,7 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -15651,7 +15624,7 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -15681,7 +15654,7 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -15711,7 +15684,7 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -15741,7 +15714,7 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
     </row>
-    <row r="217" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -15771,7 +15744,7 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -15801,7 +15774,7 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
     </row>
-    <row r="219" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -15831,7 +15804,7 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -15861,7 +15834,7 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -15891,7 +15864,7 @@
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -15921,7 +15894,7 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -15951,7 +15924,7 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -15981,7 +15954,7 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -16011,7 +15984,7 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -16041,7 +16014,7 @@
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -16071,7 +16044,7 @@
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -16101,7 +16074,7 @@
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
     </row>
-    <row r="229" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -16131,7 +16104,7 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -16161,7 +16134,7 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -16191,7 +16164,7 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -16221,7 +16194,7 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -16251,7 +16224,7 @@
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -16295,31 +16268,31 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1902.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F798896-EFC2-45AA-B8E9-54B4A2EB40BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83195BEA-2E15-43C4-80F4-D7711F3C1E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
+    <workbookView xWindow="65715" yWindow="795" windowWidth="48540" windowHeight="19755" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1060,12 +1065,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1092,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1114,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1125,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1208,7 +1213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1230,7 +1235,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1268,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1312,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1351,7 +1356,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1373,7 +1378,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1428,7 +1433,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1461,7 +1466,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1505,7 +1510,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1593,7 +1598,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1637,7 +1642,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1681,7 +1686,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1703,7 +1708,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1725,7 +1730,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1747,7 +1752,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1769,7 +1774,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1824,7 +1829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1846,7 +1851,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1857,7 +1862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1923,7 +1928,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1934,7 +1939,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1956,7 +1961,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1967,7 +1972,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1978,7 +1983,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1989,7 +1994,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2011,7 +2016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2022,7 +2027,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2033,7 +2038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2044,7 +2049,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2055,7 +2060,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2077,7 +2082,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2099,7 +2104,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2110,7 +2115,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2121,7 +2126,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2132,7 +2137,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2143,7 +2148,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2154,7 +2159,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2165,7 +2170,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2176,7 +2181,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2187,7 +2192,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2217,41 +2222,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE31E7-F629-4E21-90DE-685571331471}">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AJ234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="AF109" sqref="AF109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.41796875" customWidth="1"/>
+    <col min="2" max="3" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>28639</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>37693</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>37827</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>82509</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>39741</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>101369</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>36890</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>58361</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>46183</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -3394,7 +3400,7 @@
         <v>80311</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>80287</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -3586,7 +3592,7 @@
         <v>640457</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -3682,7 +3688,7 @@
         <v>14190</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3778,7 +3784,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3874,7 +3880,7 @@
         <v>21548</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3970,7 +3976,7 @@
         <v>17713</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4066,7 +4072,7 @@
         <v>13071</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>29108</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>40862</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -4354,7 +4360,7 @@
         <v>16095</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>21832</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -4546,7 +4552,7 @@
         <v>17251</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -4642,7 +4648,7 @@
         <v>20556</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -4738,7 +4744,7 @@
         <v>252137</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>13220</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>25737</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5026,7 +5032,7 @@
         <v>7724</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>46681</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>55423</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -5314,7 +5320,7 @@
         <v>60159</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>46746</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5506,7 +5512,7 @@
         <v>110330</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>138959</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -5698,7 +5704,7 @@
         <v>71921</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>84085</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -5986,7 +5992,7 @@
         <v>48874</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -6082,7 +6088,7 @@
         <v>80754</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>51455</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>28938</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -6370,7 +6376,7 @@
         <v>67059</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>14552</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -6658,7 +6664,7 @@
         <v>81972</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -6754,7 +6760,7 @@
         <v>64858</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>149988</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -6946,7 +6952,7 @@
         <v>75625</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>31694</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>134</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>66751</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>122486</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -7330,7 +7336,7 @@
         <v>24343</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -7426,7 +7432,7 @@
         <v>28674</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -7522,7 +7528,7 @@
         <v>100685</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -7618,7 +7624,7 @@
         <v>63262</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -7714,7 +7720,7 @@
         <v>60199</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -7810,7 +7816,7 @@
         <v>42266</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -7906,7 +7912,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -8002,7 +8008,7 @@
         <v>107858</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>61400</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -8194,7 +8200,7 @@
         <v>57007</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -8290,7 +8296,7 @@
         <v>77397</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -8386,7 +8392,7 @@
         <v>82631</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>145</v>
       </c>
@@ -8482,7 +8488,7 @@
         <v>62903</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -8578,7 +8584,7 @@
         <v>9298</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -8674,7 +8680,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -8770,7 +8776,7 @@
         <v>64152</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -8866,7 +8872,7 @@
         <v>40290</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -8962,7 +8968,7 @@
         <v>2425135</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -9058,7 +9064,7 @@
         <v>96350</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>3460260</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -9250,7 +9256,7 @@
         <v>18960</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -9346,7 +9352,7 @@
         <v>14063</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>179</v>
       </c>
@@ -9442,7 +9448,7 @@
         <v>15597</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -9538,7 +9544,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -9634,7 +9640,7 @@
         <v>67195</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -9730,7 +9736,7 @@
         <v>17762</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -9826,7 +9832,7 @@
         <v>37635</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -9922,7 +9928,7 @@
         <v>22861</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -10018,7 +10024,7 @@
         <v>19381</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -10114,7 +10120,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -10210,7 +10216,7 @@
         <v>17841</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -10305,8 +10311,16 @@
         <f t="shared" si="17"/>
         <v>238741</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE84" s="3">
+        <f>SUM(L73:L83)</f>
+        <v>26987</v>
+      </c>
+      <c r="AF84" s="3">
+        <f>SUM(X73:X83)</f>
+        <v>211754</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -10402,7 +10416,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>162</v>
       </c>
@@ -10498,7 +10512,7 @@
         <v>23016</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>163</v>
       </c>
@@ -10594,7 +10608,7 @@
         <v>14776</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>164</v>
       </c>
@@ -10690,7 +10704,7 @@
         <v>19487</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -10786,7 +10800,7 @@
         <v>5038</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>165</v>
       </c>
@@ -10882,7 +10896,7 @@
         <v>71575</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -10978,7 +10992,7 @@
         <v>64690</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -11074,7 +11088,7 @@
         <v>6638</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -11170,7 +11184,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>168</v>
       </c>
@@ -11265,8 +11279,19 @@
         <f t="shared" si="17"/>
         <v>209225</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE94" s="3">
+        <f>SUM(L85:L93)</f>
+        <v>18124</v>
+      </c>
+      <c r="AF94" s="3">
+        <f>SUM(X85:X93)</f>
+        <v>191101</v>
+      </c>
+      <c r="AH94" s="3"/>
+      <c r="AI94" s="3"/>
+      <c r="AJ94" s="3"/>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -11362,7 +11387,7 @@
         <v>15891</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>170</v>
       </c>
@@ -11458,7 +11483,7 @@
         <v>6708</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -11552,7 +11577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>172</v>
       </c>
@@ -11648,7 +11673,7 @@
         <v>8430</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -11744,7 +11769,7 @@
         <v>20950</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>174</v>
       </c>
@@ -11838,7 +11863,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -11934,7 +11959,7 @@
         <v>11639</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -12030,7 +12055,7 @@
         <v>13209</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -12126,7 +12151,7 @@
         <v>34195</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -12221,8 +12246,16 @@
         <f t="shared" si="17"/>
         <v>111022</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE104" s="3">
+        <f>SUM(L95:L103)</f>
+        <v>16241</v>
+      </c>
+      <c r="AF104" s="3">
+        <f>SUM(X95:X103)</f>
+        <v>94781</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>176</v>
       </c>
@@ -12297,12 +12330,12 @@
       <c r="W105" s="3">
         <v>199699</v>
       </c>
-      <c r="X105" s="3">
-        <v>477636</v>
+      <c r="X105" s="10">
+        <v>497636</v>
       </c>
       <c r="Y105" s="5">
         <f t="shared" si="14"/>
-        <v>-57780</v>
+        <v>-77780</v>
       </c>
       <c r="Z105" s="3"/>
       <c r="AA105" s="3">
@@ -12315,10 +12348,18 @@
       </c>
       <c r="AC105" s="3">
         <f t="shared" si="17"/>
-        <v>538988</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+        <v>558988</v>
+      </c>
+      <c r="AE105" s="3">
+        <f>SUM(AE84:AE104)</f>
+        <v>61352</v>
+      </c>
+      <c r="AF105" s="3">
+        <f>SUM(AF84:AF104)</f>
+        <v>497636</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>177</v>
       </c>
@@ -12414,7 +12455,7 @@
         <v>3989254</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -12444,7 +12485,7 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -12473,8 +12514,10 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE108" s="3"/>
+      <c r="AF108" s="3"/>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -12504,7 +12547,7 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -12534,7 +12577,7 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -12564,7 +12607,7 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -12594,7 +12637,7 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
     </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -12624,7 +12667,7 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
     </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -12654,7 +12697,7 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
     </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -12684,7 +12727,7 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
     </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -12714,7 +12757,7 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
     </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -12744,7 +12787,7 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
     </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -12774,7 +12817,7 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
     </row>
-    <row r="119" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -12804,7 +12847,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
     </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -12834,7 +12877,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -12864,7 +12907,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -12894,7 +12937,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
     </row>
-    <row r="123" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -12924,7 +12967,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
     </row>
-    <row r="124" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -12954,7 +12997,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
     </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -12984,7 +13027,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -13014,7 +13057,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -13044,7 +13087,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -13074,7 +13117,7 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -13104,7 +13147,7 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
     </row>
-    <row r="130" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -13134,7 +13177,7 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
     </row>
-    <row r="131" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -13164,7 +13207,7 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
     </row>
-    <row r="132" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -13194,7 +13237,7 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -13224,7 +13267,7 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -13254,7 +13297,7 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -13284,7 +13327,7 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
     </row>
-    <row r="136" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -13314,7 +13357,7 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
     </row>
-    <row r="137" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -13344,7 +13387,7 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
-    <row r="138" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -13374,7 +13417,7 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
     </row>
-    <row r="139" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -13404,7 +13447,7 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -13434,7 +13477,7 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -13464,7 +13507,7 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
     </row>
-    <row r="142" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -13494,7 +13537,7 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
     </row>
-    <row r="143" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -13524,7 +13567,7 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
     </row>
-    <row r="144" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -13554,7 +13597,7 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
     </row>
-    <row r="145" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -13584,7 +13627,7 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
     </row>
-    <row r="146" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -13614,7 +13657,7 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -13644,7 +13687,7 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -13674,7 +13717,7 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
     </row>
-    <row r="149" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -13704,7 +13747,7 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
     </row>
-    <row r="150" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -13734,7 +13777,7 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -13764,7 +13807,7 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -13794,7 +13837,7 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -13824,7 +13867,7 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -13854,7 +13897,7 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
     </row>
-    <row r="155" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -13884,7 +13927,7 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
     </row>
-    <row r="156" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -13914,7 +13957,7 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
     </row>
-    <row r="157" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -13944,7 +13987,7 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
     </row>
-    <row r="158" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -13974,7 +14017,7 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
     </row>
-    <row r="159" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -14004,7 +14047,7 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
     </row>
-    <row r="160" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -14034,7 +14077,7 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
     </row>
-    <row r="161" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -14064,7 +14107,7 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
     </row>
-    <row r="162" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -14094,7 +14137,7 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
     </row>
-    <row r="163" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -14124,7 +14167,7 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
     </row>
-    <row r="164" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -14154,7 +14197,7 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
     </row>
-    <row r="165" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -14184,7 +14227,7 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
     </row>
-    <row r="166" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -14214,7 +14257,7 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -14244,7 +14287,7 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
     </row>
-    <row r="168" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -14274,7 +14317,7 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
     </row>
-    <row r="169" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -14304,7 +14347,7 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -14334,7 +14377,7 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -14364,7 +14407,7 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
     </row>
-    <row r="172" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -14394,7 +14437,7 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
     </row>
-    <row r="173" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -14424,7 +14467,7 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
     </row>
-    <row r="174" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -14454,7 +14497,7 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -14484,7 +14527,7 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
     </row>
-    <row r="176" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -14514,7 +14557,7 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
     </row>
-    <row r="177" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -14544,7 +14587,7 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
     </row>
-    <row r="178" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -14574,7 +14617,7 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
     </row>
-    <row r="179" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -14604,7 +14647,7 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -14634,7 +14677,7 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -14664,7 +14707,7 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -14694,7 +14737,7 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -14724,7 +14767,7 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -14754,7 +14797,7 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -14784,7 +14827,7 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
     </row>
-    <row r="186" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -14814,7 +14857,7 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
     </row>
-    <row r="187" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -14844,7 +14887,7 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
     </row>
-    <row r="188" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -14874,7 +14917,7 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
     </row>
-    <row r="189" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -14904,7 +14947,7 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
     </row>
-    <row r="190" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -14934,7 +14977,7 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
     </row>
-    <row r="191" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -14964,7 +15007,7 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -14994,7 +15037,7 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -15024,7 +15067,7 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
     </row>
-    <row r="194" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -15054,7 +15097,7 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -15084,7 +15127,7 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
     </row>
-    <row r="196" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -15114,7 +15157,7 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
     </row>
-    <row r="197" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -15144,7 +15187,7 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
     </row>
-    <row r="198" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -15174,7 +15217,7 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
     </row>
-    <row r="199" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -15204,7 +15247,7 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
     </row>
-    <row r="200" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -15234,7 +15277,7 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
     </row>
-    <row r="201" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -15264,7 +15307,7 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
     </row>
-    <row r="202" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -15294,7 +15337,7 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
     </row>
-    <row r="203" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -15324,7 +15367,7 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
     </row>
-    <row r="204" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -15354,7 +15397,7 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
     </row>
-    <row r="205" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -15384,7 +15427,7 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
     </row>
-    <row r="206" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -15414,7 +15457,7 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
     </row>
-    <row r="207" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -15444,7 +15487,7 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
     </row>
-    <row r="208" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -15474,7 +15517,7 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
     </row>
-    <row r="209" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -15504,7 +15547,7 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -15534,7 +15577,7 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -15564,7 +15607,7 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -15594,7 +15637,7 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -15624,7 +15667,7 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -15654,7 +15697,7 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -15684,7 +15727,7 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -15714,7 +15757,7 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
     </row>
-    <row r="217" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -15744,7 +15787,7 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -15774,7 +15817,7 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
     </row>
-    <row r="219" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -15804,7 +15847,7 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -15834,7 +15877,7 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -15864,7 +15907,7 @@
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -15894,7 +15937,7 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -15924,7 +15967,7 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -15954,7 +15997,7 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -15984,7 +16027,7 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -16014,7 +16057,7 @@
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -16044,7 +16087,7 @@
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -16074,7 +16117,7 @@
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
     </row>
-    <row r="229" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -16104,7 +16147,7 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -16134,7 +16177,7 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -16164,7 +16207,7 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -16194,7 +16237,7 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -16224,7 +16267,7 @@
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -16268,29 +16311,29 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>186</v>
       </c>
